--- a/similarities/split_global/harmonic_similarity_timestamps_336.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_336.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>isophonics_244</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['F', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
+          <t>['F', 'F:maj6', 'G:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:11.320000', '0:00:14.760000')]</t>
+          <t>('0:00:33.048777', '0:00:37.312789')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:00.436303', '0:01:14.066417')]</t>
+          <t>('0:00:07.170000', '0:00:11.280000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=11.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-244#t=33.048777</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=60.436303']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=7.17</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb'], ['Db', 'Ab', 'Db']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:19.060000', '0:00:30.080000'), ('0:00:01.640000', '0:00:23.480000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:32.374988'), ('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:00:16.840000', '0:00:19.460000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:min', 'C:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>['A', 'D/5', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:46.097000', '0:00:54.196000')]</t>
+          <t>('0:02:22.140000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:04.300000', '0:00:05.850000')]</t>
+          <t>('0:00:00.421247', '0:00:06.206099')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=46.097']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=4.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_87</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:9', 'C:maj/G', 'D:7']]</t>
+          <t>['Bb:7', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:9', 'Eb', 'F:7']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:58.020000', '0:01:04.440000')]</t>
+          <t>('0:02:14.260000', '0:02:19.700000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:15.510000', '0:00:17.340000')]</t>
+          <t>('0:01:06.427052', '0:01:11.593492')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=58.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=134.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=15.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:12.680000', '0:00:20.200000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:15.660000', '0:00:39.960000')]</t>
+          <t>('0:00:22.060000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=12.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=15.66']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=22.06</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['Bb:7', 'Eb', 'Ab:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb:7', 'Ab', 'Db:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:40.370000', '0:00:51.180000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:01:20.690000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=40.37</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=142.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=80.69</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['Eb:7', 'Ab:maj6', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Eb:7', 'Ab:maj6', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:23.230000', '0:00:27.910000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:01:07.340000', '0:01:21.750000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=23.23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=67.34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['B', 'E/5', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:34.380000', '0:00:43.480000')]</t>
+          <t>('0:00:55.629773', '0:01:10.444104')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+          <t>('0:02:09.380000', '0:02:14.740000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C:min', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:34.240000', '0:00:40.760000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
+          <t>('0:01:36.241000', '0:01:41.882000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=34.24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=96.241</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D', 'G', 'D']]</t>
+          <t>['C:min', 'G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'A', 'E']]</t>
+          <t>['F:min/5', 'C:min', 'F:min/5', 'C:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:33.431496', '0:00:42.278299')]</t>
+          <t>('0:01:23.840000', '0:01:37.220000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:12.971000', '0:00:32.669000')]</t>
+          <t>('0:00:19.238000', '0:00:26.622000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=33.431496']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=83.84</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=19.238</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'A#:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G', 'C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:min', 'Db'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:57.700000', '0:01:06.060000'), ('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:00:06.774988', '0:00:12.870226')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:21.980000'), ('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:02:12.300000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=57.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=17.48', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:49.981485', '0:00:59.292687')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:05.160000', '0:00:11.100000')]</t>
+          <t>('0:00:07.700000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=49.981485']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=5.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>jaah_65</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:7', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:10.360000', '0:00:18.440000'), ('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:07.420000', '0:00:09.260000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000'), ('0:00:24.180000', '0:00:30.020000')]</t>
+          <t>('0:00:20.060000', '0:00:22.100000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=7.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.06</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F', 'C/3', 'D:min7'], ['C', 'F/5', 'C']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:07', '0:01:10.380000'), ('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:15.216000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:03.837000', '0:01:05.890000'), ('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=67.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=63.837', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
